--- a/inscricoes.xlsx
+++ b/inscricoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://globalvale-my.sharepoint.com/personal/derick_reis_vale_com/Documents/Projetos Python/Agendamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_56BD1A3C15018F45090EFFB45B3C68977BDBF027" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF549C06-8A42-414E-BE27-38E67B9D0245}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_56BD1A3C15018F45090EFFB45B3C68977BDBF027" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00300145-A88B-463D-8A54-037C7083F5CD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Empresa</t>
   </si>
@@ -44,57 +44,6 @@
   </si>
   <si>
     <t>Turno</t>
-  </si>
-  <si>
-    <t>Vale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DERICK MATHEUS </t>
-  </si>
-  <si>
-    <t>81020849</t>
-  </si>
-  <si>
-    <t>Gerência de Usina</t>
-  </si>
-  <si>
-    <t>Treinamento 1</t>
-  </si>
-  <si>
-    <t>2025-09-22</t>
-  </si>
-  <si>
-    <t>ADM (09-16h)</t>
-  </si>
-  <si>
-    <t>Turno A</t>
-  </si>
-  <si>
-    <t>ALEX CARVALHO</t>
-  </si>
-  <si>
-    <t>81020850</t>
-  </si>
-  <si>
-    <t>Parceira</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>Usimig</t>
-  </si>
-  <si>
-    <t>JOSIEL</t>
-  </si>
-  <si>
-    <t>81020888</t>
-  </si>
-  <si>
-    <t>NELSOOO</t>
-  </si>
-  <si>
-    <t>2025-10-06</t>
   </si>
 </sst>
 </file>
@@ -457,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,130 +447,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/inscricoes.xlsx
+++ b/inscricoes.xlsx
@@ -1,72 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://globalvale-my.sharepoint.com/personal/derick_reis_vale_com/Documents/Projetos Python/Agendamento/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_56BD1A3C15018F45090EFFB45B3C68977BDBF027" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00300145-A88B-463D-8A54-037C7083F5CD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Inscricoes" sheetId="1" r:id="rId1"/>
+    <sheet name="Inscricoes" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Matricula</t>
-  </si>
-  <si>
-    <t>Equipe/Gerencia</t>
-  </si>
-  <si>
-    <t>Treinamento</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Horario</t>
-  </si>
-  <si>
-    <t>Turno</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,24 +66,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -405,55 +430,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="14.90625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="21.08984375" customWidth="1"/>
-    <col min="6" max="6" width="20.26953125" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col width="14.90625" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="21.08984375" customWidth="1" min="5" max="5"/>
+    <col width="20.26953125" customWidth="1" min="6" max="6"/>
+    <col width="19.81640625" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Matricula</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Equipe/Gerencia</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Treinamento</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Horario</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Turno</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Vale</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERICK MATHEUS </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>81020849</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Gerência de Pátio</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>B1 - Substituir Caçamba Recuperadora Tipo Ponte</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ADM (09-16h)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Turno A</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{340ed6a7-0f03-43d9-901d-02d4a7e408aa}" enabled="1" method="Privileged" siteId="{7893571b-6c2c-4cef-b4da-7d4b266a0626}" removed="0"/>
-</clbl:labelList>
 </file>
--- a/inscricoes.xlsx
+++ b/inscricoes.xlsx
@@ -1,38 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://globalvale-my.sharepoint.com/personal/derick_reis_vale_com/Documents/Projetos Python/Agendamento/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_56BD1A3C15018FA58C1ADF411052DCF84E3585D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07599F8A-0760-456E-BF1A-57AE5716340F}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Inscricoes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Inscricoes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Matricula</t>
+  </si>
+  <si>
+    <t>Equipe/Gerencia</t>
+  </si>
+  <si>
+    <t>Treinamento</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Horario</t>
+  </si>
+  <si>
+    <t>Turno</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,83 +100,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -430,111 +405,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="14.90625" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="21.08984375" customWidth="1" min="5" max="5"/>
-    <col width="20.26953125" customWidth="1" min="6" max="6"/>
-    <col width="19.81640625" customWidth="1" min="7" max="7"/>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="5" max="5" width="21.08984375" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nome</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Matricula</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Equipe/Gerencia</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Treinamento</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Horario</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Turno</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Vale</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DERICK MATHEUS </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>81020849</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Gerência de Pátio</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>B1 - Substituir Caçamba Recuperadora Tipo Ponte</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-09-22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>ADM (09-16h)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Turno A</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{340ed6a7-0f03-43d9-901d-02d4a7e408aa}" enabled="1" method="Privileged" siteId="{7893571b-6c2c-4cef-b4da-7d4b266a0626}" removed="0"/>
+</clbl:labelList>
 </file>
--- a/inscricoes.xlsx
+++ b/inscricoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://globalvale-my.sharepoint.com/personal/derick_reis_vale_com/Documents/Projetos Python/Agendamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_56BD1A3C15018FA58C1ADF411052DCF84E3585D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07599F8A-0760-456E-BF1A-57AE5716340F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BAFC119-7897-4090-8B61-9F5D9D734910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>Empresa</t>
   </si>
@@ -44,6 +44,72 @@
   </si>
   <si>
     <t>Turno</t>
+  </si>
+  <si>
+    <t>Vale</t>
+  </si>
+  <si>
+    <t>JOSÉ VALDO</t>
+  </si>
+  <si>
+    <t>01544893</t>
+  </si>
+  <si>
+    <t>Gerência de Pátio</t>
+  </si>
+  <si>
+    <t>B1 - Substituir Caçamba Recuperadora Tipo Ponte</t>
+  </si>
+  <si>
+    <t>2025-10-06</t>
+  </si>
+  <si>
+    <t>ADM (09-16h)</t>
+  </si>
+  <si>
+    <t>Turno C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benedito Rodrigues Mendes </t>
+  </si>
+  <si>
+    <t>81002470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khetani Vitoria da Silva Tavares </t>
+  </si>
+  <si>
+    <t>81045551</t>
+  </si>
+  <si>
+    <t>Edivaldo Lima Romão</t>
+  </si>
+  <si>
+    <t>01554079</t>
+  </si>
+  <si>
+    <t>B2 - Substituir Cavaletes de Impacto articulado e rolos na mesa de impacto</t>
+  </si>
+  <si>
+    <t>2025-10-16</t>
+  </si>
+  <si>
+    <t>Raylson Goncalves Pantoja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thais Dos Santos Mendonça </t>
+  </si>
+  <si>
+    <t>81043057</t>
+  </si>
+  <si>
+    <t>B5 - Realizar Substituição De Chapas De Revestimentos Silos e Chutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remilson da Silva Santos </t>
+  </si>
+  <si>
+    <t>2025-10-22</t>
   </si>
 </sst>
 </file>
@@ -406,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -447,6 +513,188 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -454,6 +702,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{340ed6a7-0f03-43d9-901d-02d4a7e408aa}" enabled="1" method="Privileged" siteId="{7893571b-6c2c-4cef-b4da-7d4b266a0626}" removed="0"/>
+  <clbl:label id="{340ed6a7-0f03-43d9-901d-02d4a7e408aa}" enabled="1" method="Privileged" siteId="{7893571b-6c2c-4cef-b4da-7d4b266a0626}" contentBits="0" removed="0"/>
 </clbl:labelList>
 </file>
--- a/inscricoes.xlsx
+++ b/inscricoes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://globalvale-my.sharepoint.com/personal/derick_reis_vale_com/Documents/Projetos Python/Agendamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{743C855A-7795-4995-8055-DCA7D0422AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F35C38CE-994D-4B7D-ABE9-47D0FF93679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="51">
   <si>
     <t>Empresa</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>DENIS CONCEIÇÃO NASCIMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gildean Nunes Mendes </t>
+  </si>
+  <si>
+    <t>Usimig</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
 </sst>
 </file>
@@ -539,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
@@ -984,6 +993,29 @@
         <v>44</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
